--- a/data/SSTQA/temp_tables/temp.xlsx
+++ b/data/SSTQA/temp_tables/temp.xlsx
@@ -7,8 +7,44 @@
     <workbookView windowWidth="25800" windowHeight="13340"/>
   </bookViews>
   <sheets>
-    <sheet name="产品销售情况方差分析" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="CR_1f7210b6">Sheet1!$E$6</definedName>
+    <definedName name="CR_3cab783c">Sheet1!$E$16</definedName>
+    <definedName name="CR_3fd9cd70">Sheet1!#REF!</definedName>
+    <definedName name="CR_4ee167eb">Sheet1!$E$10</definedName>
+    <definedName name="CR_4f13f60a">Sheet1!#REF!</definedName>
+    <definedName name="CR_50bdf2c9">Sheet1!#REF!</definedName>
+    <definedName name="CR_52dd7d9a">Sheet1!$E$7</definedName>
+    <definedName name="CR_5a64a4ef">Sheet1!#REF!</definedName>
+    <definedName name="CR_6080b954">Sheet1!$E$5</definedName>
+    <definedName name="CR_60a30062">Sheet1!#REF!</definedName>
+    <definedName name="CR_6427dffe">Sheet1!$E$12</definedName>
+    <definedName name="CR_676f7a5c">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="CR_6b507314">Sheet1!$E$3</definedName>
+    <definedName name="CR_6c6db9c6">Sheet1!$E$4</definedName>
+    <definedName name="CR_7b4f5e6">Sheet1!#REF!</definedName>
+    <definedName name="CR_7cac4de2">Sheet1!#REF!</definedName>
+    <definedName name="CR_82d0b118">Sheet1!#REF!</definedName>
+    <definedName name="CR_89445aa5">Sheet1!$E$13</definedName>
+    <definedName name="CR_9046732a">Sheet1!$E$14</definedName>
+    <definedName name="CR_9652bb30">Sheet1!#REF!</definedName>
+    <definedName name="CR_abaf2d1c">Sheet1!#REF!</definedName>
+    <definedName name="CR_ae6de7e2">Sheet1!#REF!</definedName>
+    <definedName name="CR_b4c93ede">Sheet1!#REF!</definedName>
+    <definedName name="CR_cd36edd9">Sheet1!$E$11</definedName>
+    <definedName name="CR_cefad8b2">Sheet1!$E$8</definedName>
+    <definedName name="CR_d398d5f9">Sheet1!$E$17</definedName>
+    <definedName name="CR_d6fe4846">Sheet1!#REF!</definedName>
+    <definedName name="CR_d81ce9aa">Sheet1!$E$15</definedName>
+    <definedName name="CR_de191702">Sheet1!#REF!</definedName>
+    <definedName name="CR_f31a0175">Sheet1!$E$9</definedName>
+    <definedName name="CR_f51142f1">Sheet1!#REF!</definedName>
+    <definedName name="CR_f9aaefa8">Sheet1!#REF!</definedName>
+    <definedName name="CR_fa15d613">Sheet1!#REF!</definedName>
+    <definedName name="CR_fb82d2a8">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,72 +63,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>公司上半年产品销售情况</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>1月份</t>
-  </si>
-  <si>
-    <t>2月份</t>
-  </si>
-  <si>
-    <t>3月份</t>
-  </si>
-  <si>
-    <t>4月份</t>
-  </si>
-  <si>
-    <t>5月份</t>
-  </si>
-  <si>
-    <t>6月份</t>
-  </si>
-  <si>
-    <t>营养麦片</t>
-  </si>
-  <si>
-    <t>土豆片</t>
-  </si>
-  <si>
-    <t>薯条</t>
-  </si>
-  <si>
-    <t>豆奶</t>
-  </si>
-  <si>
-    <t>葡萄糖</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+  <si>
+    <t>2019年人力资源和社会保障月度数据</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>统计指标</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>就业
+和再
+就业</t>
+  </si>
+  <si>
+    <t>城镇新增就业人数</t>
+  </si>
+  <si>
+    <t>万人</t>
+  </si>
+  <si>
+    <t>城镇失业人员再就业人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">就业困难人员就业人数 </t>
+  </si>
+  <si>
+    <t>城镇
+职工
+基本
+养老
+保险</t>
+  </si>
+  <si>
+    <t>期末参保人数</t>
+  </si>
+  <si>
+    <t>基金收入</t>
+  </si>
+  <si>
+    <t>亿元</t>
+  </si>
+  <si>
+    <t>基金支出</t>
+  </si>
+  <si>
+    <t>城乡
+居民
+基本
+养老
+保险</t>
+  </si>
+  <si>
+    <t>失业
+保险</t>
+  </si>
+  <si>
+    <t>工伤
+保险</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="12"/>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="华文新魏"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -442,57 +518,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,81 +537,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -688,183 +644,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,7 +878,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -929,9 +888,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -939,44 +898,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Cambria-Calibri">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1009,9 +968,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1041,7 +1000,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2007-2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1050,131 +1009,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1186,30 +1174,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="7" width="13" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="5.3359375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.95" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1221,136 +1211,257 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2300</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1500</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2400</v>
-      </c>
-      <c r="G3" s="9">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="10">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="4" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>1400</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1620</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2100</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3400</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
-        <v>900</v>
-      </c>
-      <c r="C5" s="5">
-        <v>940</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1100</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1400</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1250</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5">
-        <v>1200</v>
-      </c>
-      <c r="C6" s="5">
-        <v>600</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1100</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1400</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4500</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
-        <v>650</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1150</v>
-      </c>
-      <c r="E7" s="7">
-        <v>950</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1050</v>
-      </c>
-      <c r="G7" s="10">
-        <v>800</v>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43300.9132</v>
+      </c>
+    </row>
+    <row r="7" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45910.616958</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11">
+        <v>43964.70913739</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10">
+        <v>53046.1618</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3510.74924521</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2846.11135104</v>
+      </c>
+    </row>
+    <row r="12" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10">
+        <v>20455.6387</v>
+      </c>
+    </row>
+    <row r="13" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1119.34228999</v>
+      </c>
+    </row>
+    <row r="14" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1080.4693347</v>
+      </c>
+    </row>
+    <row r="15" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10">
+        <v>25374.6881</v>
+      </c>
+    </row>
+    <row r="16" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="11">
+        <v>722.989252</v>
+      </c>
+    </row>
+    <row r="17" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="11">
+        <v>721.004372</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/SSTQA/temp_tables/temp.xlsx
+++ b/data/SSTQA/temp_tables/temp.xlsx
@@ -7,44 +7,8 @@
     <workbookView windowWidth="25800" windowHeight="13340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="产品销售情况方差分析" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="CR_1f7210b6">Sheet1!$E$6</definedName>
-    <definedName name="CR_3cab783c">Sheet1!$E$16</definedName>
-    <definedName name="CR_3fd9cd70">Sheet1!#REF!</definedName>
-    <definedName name="CR_4ee167eb">Sheet1!$E$10</definedName>
-    <definedName name="CR_4f13f60a">Sheet1!#REF!</definedName>
-    <definedName name="CR_50bdf2c9">Sheet1!#REF!</definedName>
-    <definedName name="CR_52dd7d9a">Sheet1!$E$7</definedName>
-    <definedName name="CR_5a64a4ef">Sheet1!#REF!</definedName>
-    <definedName name="CR_6080b954">Sheet1!$E$5</definedName>
-    <definedName name="CR_60a30062">Sheet1!#REF!</definedName>
-    <definedName name="CR_6427dffe">Sheet1!$E$12</definedName>
-    <definedName name="CR_676f7a5c">Sheet1!$A$1:$E$1</definedName>
-    <definedName name="CR_6b507314">Sheet1!$E$3</definedName>
-    <definedName name="CR_6c6db9c6">Sheet1!$E$4</definedName>
-    <definedName name="CR_7b4f5e6">Sheet1!#REF!</definedName>
-    <definedName name="CR_7cac4de2">Sheet1!#REF!</definedName>
-    <definedName name="CR_82d0b118">Sheet1!#REF!</definedName>
-    <definedName name="CR_89445aa5">Sheet1!$E$13</definedName>
-    <definedName name="CR_9046732a">Sheet1!$E$14</definedName>
-    <definedName name="CR_9652bb30">Sheet1!#REF!</definedName>
-    <definedName name="CR_abaf2d1c">Sheet1!#REF!</definedName>
-    <definedName name="CR_ae6de7e2">Sheet1!#REF!</definedName>
-    <definedName name="CR_b4c93ede">Sheet1!#REF!</definedName>
-    <definedName name="CR_cd36edd9">Sheet1!$E$11</definedName>
-    <definedName name="CR_cefad8b2">Sheet1!$E$8</definedName>
-    <definedName name="CR_d398d5f9">Sheet1!$E$17</definedName>
-    <definedName name="CR_d6fe4846">Sheet1!#REF!</definedName>
-    <definedName name="CR_d81ce9aa">Sheet1!$E$15</definedName>
-    <definedName name="CR_de191702">Sheet1!#REF!</definedName>
-    <definedName name="CR_f31a0175">Sheet1!$E$9</definedName>
-    <definedName name="CR_f51142f1">Sheet1!#REF!</definedName>
-    <definedName name="CR_f9aaefa8">Sheet1!#REF!</definedName>
-    <definedName name="CR_fa15d613">Sheet1!#REF!</definedName>
-    <definedName name="CR_fb82d2a8">Sheet1!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -63,112 +27,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>2019年人力资源和社会保障月度数据</t>
+    <t>公司上半年产品销售情况</t>
   </si>
   <si>
-    <t>项目</t>
+    <t>产品名称</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>1月份</t>
   </si>
   <si>
-    <t>统计指标</t>
+    <t>2月份</t>
   </si>
   <si>
-    <t>单位</t>
+    <t>3月份</t>
   </si>
   <si>
-    <t>数量</t>
+    <t>4月份</t>
   </si>
   <si>
-    <t>就业
-和再
-就业</t>
+    <t>5月份</t>
   </si>
   <si>
-    <t>城镇新增就业人数</t>
+    <t>6月份</t>
   </si>
   <si>
-    <t>万人</t>
+    <t>营养麦片</t>
   </si>
   <si>
-    <t>城镇失业人员再就业人数</t>
+    <t>土豆片</t>
   </si>
   <si>
-    <t xml:space="preserve">就业困难人员就业人数 </t>
+    <t>薯条</t>
   </si>
   <si>
-    <t>城镇
-职工
-基本
-养老
-保险</t>
+    <t>豆奶</t>
   </si>
   <si>
-    <t>期末参保人数</t>
-  </si>
-  <si>
-    <t>基金收入</t>
-  </si>
-  <si>
-    <t>亿元</t>
-  </si>
-  <si>
-    <t>基金支出</t>
-  </si>
-  <si>
-    <t>城乡
-居民
-基本
-养老
-保险</t>
-  </si>
-  <si>
-    <t>失业
-保险</t>
-  </si>
-  <si>
-    <t>工伤
-保险</t>
+    <t>葡萄糖</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
+  <fonts count="23">
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
+      <sz val="16"/>
+      <name val="华文新魏"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -518,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -527,16 +451,136 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -644,186 +688,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,7 +919,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -888,9 +929,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007-2010">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -898,44 +939,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Cambria-Calibri">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -968,9 +1009,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1000,7 +1041,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007-2010">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,160 +1050,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:satMod val="350000"/>
-                <a:shade val="99000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1174,32 +1186,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="5.3359375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="23.95" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1211,257 +1221,136 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1279</v>
+        <v>2000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2300</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1800</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3600</v>
       </c>
     </row>
-    <row r="4" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
-        <v>504</v>
+        <v>1400</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1620</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3400</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3900</v>
       </c>
     </row>
-    <row r="5" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
-        <v>164</v>
+        <v>900</v>
+      </c>
+      <c r="C5" s="5">
+        <v>940</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1250</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1000</v>
       </c>
     </row>
-    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="5">
+        <v>600</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4500</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
-        <v>43300.9132</v>
-      </c>
-    </row>
-    <row r="7" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11">
-        <v>45910.616958</v>
-      </c>
-    </row>
-    <row r="8" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="11">
-        <v>43964.70913739</v>
-      </c>
-    </row>
-    <row r="9" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>53046.1618</v>
-      </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3510.74924521</v>
-      </c>
-    </row>
-    <row r="11" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2846.11135104</v>
-      </c>
-    </row>
-    <row r="12" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10">
-        <v>20455.6387</v>
-      </c>
-    </row>
-    <row r="13" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1119.34228999</v>
-      </c>
-    </row>
-    <row r="14" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1080.4693347</v>
-      </c>
-    </row>
-    <row r="15" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>25374.6881</v>
-      </c>
-    </row>
-    <row r="16" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11">
-        <v>722.989252</v>
-      </c>
-    </row>
-    <row r="17" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="11">
-        <v>721.004372</v>
+      <c r="B7" s="7">
+        <v>650</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1150</v>
+      </c>
+      <c r="E7" s="7">
+        <v>950</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1050</v>
+      </c>
+      <c r="G7" s="10">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>